--- a/data/trans_camb/P12C1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P12C1_R-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M4/M1</t>
+          <t>M5/M4</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>M4/M1</t>
+          <t>M5/M4</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>M4/M1</t>
+          <t>M5/M4</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>49,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,97</t>
+          <t>27,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,86</t>
+          <t>38,39</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 4,14</t>
+          <t>39,48; 62,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,1; -1,62</t>
+          <t>16,78; 36,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,51; -1,53</t>
+          <t>30,27; 47,15</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-14,18%</t>
+          <t>411,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-18,72%</t>
+          <t>56,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-19,51%</t>
+          <t>123,28%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,58; 39,26</t>
+          <t>232,26; 788,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-35,78; -3,64</t>
+          <t>31,04; 84,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,36; -4,87</t>
+          <t>86,76; 176,94</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>42,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>14,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>28,53</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 3,92</t>
+          <t>30,34; 52,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 15,06</t>
+          <t>-0,19; 26,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 6,3</t>
+          <t>19,15; 37,21</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-21,45%</t>
+          <t>367,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>83,78%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-54,78; 40,98</t>
+          <t>148,68; 752,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 37,22</t>
+          <t>0,17; 52,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,37; 22,98</t>
+          <t>50,11; 122,88</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>13,55</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>22,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>17,7</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 15,37</t>
+          <t>-7,56; 35,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 17,48</t>
+          <t>-0,04; 44,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 14,75</t>
+          <t>-5,5; 35,79</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>31,15%</t>
+          <t>130,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>44,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>58,34%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,78; 388,82</t>
+          <t>-45,06; 1079,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 36,84</t>
+          <t>0,04; 116,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,96; 60,58</t>
+          <t>-9,74; 184,94</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>42,84</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>21,96</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>32,27</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 2,12</t>
+          <t>34,69; 51,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 2,87</t>
+          <t>12,95; 28,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 0,67</t>
+          <t>26,3; 38,28</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-13,4%</t>
+          <t>365,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,72%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-9,54%</t>
+          <t>100,08%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,68; 19,43</t>
+          <t>234,41; 585,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 5,97</t>
+          <t>23,89; 60,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 2,06</t>
+          <t>75,12; 130,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12C1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P12C1_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>49,86</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>27,53</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>38,39</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>50.04309928381458</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>27.39545562760957</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>38.16644650352382</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>39,48; 62,04</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>16,78; 36,84</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>30,27; 47,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>39.54053158150346</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>15.64112390645171</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>30.03835749758867</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>411,42%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>56,27%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>123,28%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>62.13210443704055</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>36.96379508547363</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>46.7866555449694</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>232,26; 788,28</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>31,04; 84,32</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>86,76; 176,94</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>3.871803860532558</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.5678498131120239</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1.21318515353916</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>42,52</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>14,72</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>28,53</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>2.190355388542569</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.2967767404431747</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.8547631116520106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>30,34; 52,91</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 26,73</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>19,15; 37,21</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>7.402362949332247</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.8646759749102774</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.745542307372856</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>367,0%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>26,38%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>83,78%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>41.65531718930715</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>16.722064159314</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>29.16771198400216</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>148,68; 752,39</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 52,52</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>50,11; 122,88</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>28.82199844652999</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>3.158773052406695</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>20.30432903158716</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>13,55</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>22,85</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>17,7</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>52.46902633115826</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>28.76445025984137</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>37.78979264146979</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-7,56; 35,24</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,04; 44,61</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,5; 35,79</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>3.476028932342374</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.3038648045038019</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.8631777513015608</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>130,4%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>44,79%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>58,34%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>1.434550146016843</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.04720643839312943</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.5272339664142898</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-45,06; 1079,51</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 116,35</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-9,74; 184,94</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>7.111139494017557</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.5717754767258341</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.278542960214631</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>42,84</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>21,96</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>32,27</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>13.34693196569797</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>22.38101130213493</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>17.11802865389064</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>34,69; 51,46</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>12,95; 28,93</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>26,3; 38,28</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-7.986185374257983</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.09170266793309718</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-6.312190950434406</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>365,68%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>42,29%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>100,08%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>35.03364022735153</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>44.48198399422046</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>35.38074356749305</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>234,41; 585,29</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>23,89; 60,09</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>75,12; 130,41</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>1.229114282467189</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.4369155792012187</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.5477182538511324</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.461805630142463</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.002609578176662103</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1159835441166701</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>9.869059520651899</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>1.157998064275324</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1.679257505613189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>42.44143249374201</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>22.58716479798488</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>32.25048375291158</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>34.24084258762304</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>14.02088168703858</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>26.3270272338469</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>51.27431899512427</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>29.66535926434201</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>38.36114729203004</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>3.449153039149653</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.4401318284152667</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.9952645244174105</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>2.182176421779461</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.2564303930476922</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.7478248734736815</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>5.520526918772529</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.6262633469842225</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>1.294135522088719</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
